--- a/GitFYP_experiment/pytorch/UCI/SSL/result/classification_report.xlsx
+++ b/GitFYP_experiment/pytorch/UCI/SSL/result/classification_report.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>28.72340425531915</v>
       </c>
       <c r="C2" t="n">
-        <v>79.71014492753623</v>
+        <v>18.84753901560624</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.13195342820181</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.52296819787986</v>
+        <v>57.21925133689839</v>
       </c>
       <c r="H2" t="n">
-        <v>36.15056818181818</v>
+        <v>30.53977272727273</v>
       </c>
       <c r="I2" t="n">
-        <v>25.06084442560298</v>
+        <v>23.87528884489371</v>
       </c>
       <c r="J2" t="n">
-        <v>24.20446405943767</v>
+        <v>23.60354483869267</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C3" t="n">
-        <v>28.35051546391752</v>
+        <v>80.9278350515464</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>75.93984962406014</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96.18320610687023</v>
+        <v>81.67938931297711</v>
       </c>
       <c r="H3" t="n">
-        <v>36.15056818181818</v>
+        <v>30.53977272727273</v>
       </c>
       <c r="I3" t="n">
-        <v>33.41226186580798</v>
+        <v>31.26787072742058</v>
       </c>
       <c r="J3" t="n">
-        <v>36.15056818181818</v>
+        <v>30.53977272727273</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25.23364485981309</v>
       </c>
       <c r="C4" t="n">
-        <v>41.82509505703423</v>
+        <v>30.57448880233691</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.694835680751173</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>38.88354186717999</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60.8695652173913</v>
+        <v>67.29559748427673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.15056818181818</v>
+        <v>30.53977272727273</v>
       </c>
       <c r="I4" t="n">
-        <v>23.59636702360092</v>
+        <v>21.29976113786298</v>
       </c>
       <c r="J4" t="n">
-        <v>24.43531013117261</v>
+        <v>21.70308186863583</v>
       </c>
     </row>
     <row r="5">
@@ -607,7 +607,7 @@
         <v>26200</v>
       </c>
       <c r="H5" t="n">
-        <v>36.15056818181818</v>
+        <v>30.53977272727273</v>
       </c>
       <c r="I5" t="n">
         <v>140800</v>

--- a/GitFYP_experiment/pytorch/UCI/SSL/result/classification_report.xlsx
+++ b/GitFYP_experiment/pytorch/UCI/SSL/result/classification_report.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.72340425531915</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18.84753901560624</v>
+        <v>21.40391254315305</v>
       </c>
       <c r="D2" t="n">
-        <v>38.46153846153847</v>
+        <v>4.177545691906006</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>75.64102564102564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.21925133689839</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>30.53977272727273</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I2" t="n">
-        <v>23.87528884489371</v>
+        <v>16.87041397934745</v>
       </c>
       <c r="J2" t="n">
-        <v>23.60354483869267</v>
+        <v>16.75821056778778</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.9278350515464</v>
+        <v>95.87628865979381</v>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.96747967479675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81.67938931297711</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53977272727273</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I3" t="n">
-        <v>31.26787072742058</v>
+        <v>25.30729472243176</v>
       </c>
       <c r="J3" t="n">
-        <v>30.53977272727273</v>
+        <v>22.72727272727273</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.23364485981309</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.57448880233691</v>
+        <v>34.99529633113828</v>
       </c>
       <c r="D4" t="n">
-        <v>4.694835680751173</v>
+        <v>5.48885077186964</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>58.70646766169154</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>67.29559748427673</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30.53977272727273</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I4" t="n">
-        <v>21.29976113786298</v>
+        <v>16.53176912744991</v>
       </c>
       <c r="J4" t="n">
-        <v>21.70308186863583</v>
+        <v>15.85841526093102</v>
       </c>
     </row>
     <row r="5">
@@ -607,7 +607,7 @@
         <v>26200</v>
       </c>
       <c r="H5" t="n">
-        <v>30.53977272727273</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="I5" t="n">
         <v>140800</v>
